--- a/KITTI_Experiment_Results_20_9_23.xlsx
+++ b/KITTI_Experiment_Results_20_9_23.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCE1\Downloads\Sonuçlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{664032EE-B36B-45B2-8F55-4B1BBFF81AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D66333F-7CC6-4796-8FB6-C0DBE7B85004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="200_eklabel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1612" uniqueCount="216">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1637" uniqueCount="230">
   <si>
     <t>filename</t>
   </si>
@@ -674,11 +674,53 @@
   <si>
     <t>Note: (iou:-1 Not calculated)</t>
   </si>
+  <si>
+    <t>AVARAGE RESULTS FOR GROUND CALCULATIONS</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>metrics:, 22730950.0, 53149018.0, 11031010.0, 1392706.0, 51.48488345916097, 171.85806932299144, 189.15823238609332, 135.19786272166797, 200, 129.33245381114148</t>
+  </si>
+  <si>
+    <t>average:, 113654.75,  265745.09, 55155.05, 6963.53, 0.25742441729580484, 0.8592903466149572, 0.9457911619304666, 0.6759893136083399, 0.6466622690557073, 200</t>
+  </si>
+  <si>
+    <t>hough_ground</t>
+  </si>
+  <si>
+    <t>metrics:, 16515641.75, 39842375.09, 24658553.05, 7728632.53, 37.407011564812784, 127.65208029966185, 139.93514956956724, 86.23930478093894, 400, 69.97860766800353</t>
+  </si>
+  <si>
+    <t>average:, 41289.104375,  99605.93772500001, 61646.382625, 19321.581325, 0.09351752891203197, 0.3191302007491546, 0.34983787392391813, 0.21559826195234735, 0.17494651917000884, 400</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>metrics:, 53190307.104375005, 22830555.937725, 1454352.382625, 11050331.581325, 120.4667033927425, 172.1771995237406, 167.45569609922774, 195.31658330925103, 600, -199.82505348082998</t>
+  </si>
+  <si>
+    <t>average:, 88650.51184062501,  38050.926562875, 2423.9206377083333, 18417.219302208334, 0.20077783898790416, 0.28696199920623433, 0.2790928268320462, 0.32552763884875174, -0.3330417558013833, 600</t>
+  </si>
+  <si>
+    <t>hough_obstacle</t>
+  </si>
+  <si>
+    <t>metrics:, 39665280.51184063, 16440037.926562876, 7724092.920637708, 24621815.219302207, 89.84398064451787, 127.07975195225312, 124.51323057383478, 164.71287311630516, 800, -200.3330417558014</t>
+  </si>
+  <si>
+    <t>average:, 49581.60063980078,  20550.047408203594, 9655.116150797136, 30777.26902412776, 0.11230497580564734, 0.1588496899403164, 0.15564153821729346, 0.20589109139538145, -0.25041630219475175, 800</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1156,8 +1198,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1512,11 +1558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L801"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <selection activeCell="L803" sqref="L803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,40 +1572,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -29528,7 +29574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>214</v>
       </c>
@@ -29563,7 +29609,123 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A802" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B802" s="1"/>
+      <c r="C802" s="1"/>
+      <c r="D802" s="1"/>
+      <c r="E802" s="1"/>
+      <c r="F802" s="1"/>
+      <c r="G802" s="1"/>
+      <c r="H802" s="1"/>
+      <c r="I802" s="1"/>
+      <c r="J802" s="1"/>
+      <c r="K802" s="1"/>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A803" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H803" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I803" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J803" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K803" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L803" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B804" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B807" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B810" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B813" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A802:K802"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KITTI_Experiment_Results_20_9_23.xlsx
+++ b/KITTI_Experiment_Results_20_9_23.xlsx
@@ -5,17 +5,17 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\obstacle_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2E7900D-EFA0-4349-8FA8-BDC30EAF147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E75F6DF3-2E26-44E5-8FEC-AFF39869443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="200_eklabel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1636" uniqueCount="226">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="245">
   <si>
     <t>filename</t>
   </si>
@@ -663,9 +663,6 @@
     <t>Note: (iou:-1 Not calculated)</t>
   </si>
   <si>
-    <t>average:, 113654.75,  265745.09, 55155.05, 6963.53, 0.25742441729580484, 0.8592903466149572, 0.9457911619304666, 0.6759893136083399, 0.6466622690557073, 200</t>
-  </si>
-  <si>
     <t>counter</t>
   </si>
   <si>
@@ -684,25 +681,85 @@
     <t xml:space="preserve"> Proposed_Obstacle</t>
   </si>
   <si>
-    <t>sum of metrics:, 22730950.0, 53149018.0, 11031010.0, 1392706.0, 51.48488345916097, 171.85806932299144, 189.15823238609332, 135.19786272166797, 129.33245381114148, 200</t>
+    <t>0.6466622690557073</t>
   </si>
   <si>
-    <t>sum of metrics:, 16401987.0, 39576630.0, 24603398.0, 7721669.0, 37.149587147516975, 126.79278995304689, 138.9893584076368, 85.5633154673306, 69.33194539894782, 200</t>
+    <t>0.6759893136083399</t>
   </si>
   <si>
-    <t>average:, 82009.935,  197883.15, 123016.99, 38608.345, 0.18574793573758488, 0.6339639497652345, 0.6949467920381839, 0.42781657733665296, 0.3466597269947391, 200</t>
+    <t>0.8592903466149572</t>
   </si>
   <si>
-    <t>sum of metrics:, 53149018.0, 22730950.0, 1392706.0, 11031010.0, 120.37318586383047, 171.85806932299144, 167.10585822530385, 195.10098504729868, -200.0, 200</t>
+    <t>0.25742441729580484</t>
   </si>
   <si>
-    <t>average:, 265745.09,  113654.75, 6963.53, 55155.05, 0.6018659293191524, 0.8592903466149572, 0.8355292911265192, 0.9755049252364933, -1.0, 200</t>
+    <t>0.9457911619304666</t>
   </si>
   <si>
-    <t>sum of metrics:, 39576630.0, 16401987.0, 7721669.0, 24603398.0, 89.64320280552997, 126.79278995304689, 124.23413774700273, 164.38734547745642, -200.0, 200</t>
+    <t>6963.53</t>
   </si>
   <si>
-    <t>average:, 197883.15,  82009.935, 38608.345, 123016.99, 0.4482160140276498, 0.6339639497652345, 0.6211706887350137, 0.8219367273872821, -1.0, 200</t>
+    <t>55155.05</t>
+  </si>
+  <si>
+    <t>113654.75</t>
+  </si>
+  <si>
+    <t>0.3466597269947391</t>
+  </si>
+  <si>
+    <t>0.42781657733665296</t>
+  </si>
+  <si>
+    <t>0.6949467920381839</t>
+  </si>
+  <si>
+    <t>0.18574793573758488</t>
+  </si>
+  <si>
+    <t>123016.99</t>
+  </si>
+  <si>
+    <t>197883.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.0</t>
+  </si>
+  <si>
+    <t>0.9755049252364933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8355292911265192</t>
+  </si>
+  <si>
+    <t>0.6018659293191524</t>
+  </si>
+  <si>
+    <t>265745.09</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>0.8219367273872821</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6211706887350137</t>
+  </si>
+  <si>
+    <t>0.6339639497652345</t>
+  </si>
+  <si>
+    <t>0.4482160140276498</t>
+  </si>
+  <si>
+    <t>Proposed_Ground</t>
+  </si>
+  <si>
+    <t>Proposed_Obstacle</t>
+  </si>
+  <si>
+    <t>Hough_Obstacle</t>
   </si>
 </sst>
 </file>
@@ -1186,11 +1243,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1547,16 +1610,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L815"/>
+  <dimension ref="A1:L807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A710" workbookViewId="0">
-      <selection activeCell="N721" sqref="N721"/>
+    <sheetView tabSelected="1" topLeftCell="A819" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B813" sqref="B813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1602,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>116039</v>
@@ -1637,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <v>68853</v>
@@ -1672,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <v>279276</v>
@@ -1707,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <v>241988</v>
@@ -1742,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6">
         <v>127829</v>
@@ -1777,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7">
         <v>126426</v>
@@ -1812,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>256390</v>
@@ -1847,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9">
         <v>15951</v>
@@ -1882,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>139578</v>
@@ -1917,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11">
         <v>71456</v>
@@ -1952,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12">
         <v>277366</v>
@@ -1987,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>153643</v>
@@ -2022,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14">
         <v>144662</v>
@@ -2057,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15">
         <v>91597</v>
@@ -2092,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16">
         <v>269008</v>
@@ -2127,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17">
         <v>234340</v>
@@ -2162,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18">
         <v>59944</v>
@@ -2197,7 +2262,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19">
         <v>42214</v>
@@ -2232,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20">
         <v>262006</v>
@@ -2267,7 +2332,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21">
         <v>288467</v>
@@ -2302,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22">
         <v>56854</v>
@@ -2337,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23">
         <v>37401</v>
@@ -2372,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24">
         <v>266100</v>
@@ -2407,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25">
         <v>165684</v>
@@ -2442,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26">
         <v>43345</v>
@@ -2477,7 +2542,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27">
         <v>43560</v>
@@ -2512,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28">
         <v>290587</v>
@@ -2547,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29">
         <v>151183</v>
@@ -2582,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>156982</v>
@@ -2617,7 +2682,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31">
         <v>82821</v>
@@ -2652,7 +2717,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32">
         <v>265987</v>
@@ -2687,7 +2752,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>233685</v>
@@ -2722,7 +2787,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34">
         <v>139936</v>
@@ -2757,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35">
         <v>130350</v>
@@ -2792,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36">
         <v>275502</v>
@@ -2827,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37">
         <v>85025</v>
@@ -2862,7 +2927,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38">
         <v>159013</v>
@@ -2897,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39">
         <v>95268</v>
@@ -2932,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40">
         <v>257450</v>
@@ -2967,7 +3032,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41">
         <v>233012</v>
@@ -3002,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42">
         <v>163390</v>
@@ -3037,7 +3102,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43">
         <v>97463</v>
@@ -3072,7 +3137,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44">
         <v>246857</v>
@@ -3107,7 +3172,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>16889</v>
@@ -3142,7 +3207,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46">
         <v>168809</v>
@@ -3177,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47">
         <v>72229</v>
@@ -3212,7 +3277,7 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48">
         <v>243708</v>
@@ -3247,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49">
         <v>235326</v>
@@ -3282,7 +3347,7 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C50">
         <v>163560</v>
@@ -3317,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51">
         <v>86769</v>
@@ -3352,7 +3417,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52">
         <v>246568</v>
@@ -3387,7 +3452,7 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53">
         <v>238681</v>
@@ -3422,7 +3487,7 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54">
         <v>134974</v>
@@ -3457,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55">
         <v>77146</v>
@@ -3492,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C56">
         <v>241076</v>
@@ -3527,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C57">
         <v>204387</v>
@@ -3562,7 +3627,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58">
         <v>158384</v>
@@ -3597,7 +3662,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>70855</v>
@@ -3632,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60">
         <v>239990</v>
@@ -3667,7 +3732,7 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>206888</v>
@@ -3702,7 +3767,7 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62">
         <v>142830</v>
@@ -3737,7 +3802,7 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63">
         <v>81934</v>
@@ -3772,7 +3837,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64">
         <v>239163</v>
@@ -3807,7 +3872,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65">
         <v>202980</v>
@@ -3842,7 +3907,7 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66">
         <v>155029</v>
@@ -3877,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67">
         <v>84826</v>
@@ -3912,7 +3977,7 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68">
         <v>233361</v>
@@ -3947,7 +4012,7 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69">
         <v>195130</v>
@@ -3982,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70">
         <v>155768</v>
@@ -4017,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>76000</v>
@@ -4052,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>242821</v>
@@ -4087,7 +4152,7 @@
         <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73">
         <v>208594</v>
@@ -4122,7 +4187,7 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74">
         <v>71393</v>
@@ -4157,7 +4222,7 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75">
         <v>46753</v>
@@ -4192,7 +4257,7 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76">
         <v>272402</v>
@@ -4227,7 +4292,7 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77">
         <v>269388</v>
@@ -4262,7 +4327,7 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78">
         <v>81693</v>
@@ -4297,7 +4362,7 @@
         <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79">
         <v>30183</v>
@@ -4332,7 +4397,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80">
         <v>312820</v>
@@ -4367,7 +4432,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81">
         <v>297701</v>
@@ -4402,7 +4467,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C82">
         <v>73567</v>
@@ -4437,7 +4502,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83">
         <v>43397</v>
@@ -4472,7 +4537,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84">
         <v>308464</v>
@@ -4507,7 +4572,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85">
         <v>292133</v>
@@ -4542,7 +4607,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86">
         <v>80098</v>
@@ -4577,7 +4642,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87">
         <v>66461</v>
@@ -4612,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88">
         <v>299036</v>
@@ -4647,7 +4712,7 @@
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89">
         <v>22086</v>
@@ -4682,7 +4747,7 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>171650</v>
@@ -4717,7 +4782,7 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91">
         <v>72082</v>
@@ -4752,7 +4817,7 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92">
         <v>207635</v>
@@ -4787,7 +4852,7 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C93">
         <v>223686</v>
@@ -4822,7 +4887,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94">
         <v>122452</v>
@@ -4857,7 +4922,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95">
         <v>63057</v>
@@ -4892,7 +4957,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96">
         <v>287911</v>
@@ -4927,7 +4992,7 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97">
         <v>265320</v>
@@ -4962,7 +5027,7 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98">
         <v>130517</v>
@@ -4997,7 +5062,7 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99">
         <v>111075</v>
@@ -5032,7 +5097,7 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100">
         <v>291616</v>
@@ -5067,7 +5132,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101">
         <v>242956</v>
@@ -5102,7 +5167,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C102">
         <v>121735</v>
@@ -5137,7 +5202,7 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103">
         <v>94831</v>
@@ -5172,7 +5237,7 @@
         <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104">
         <v>271054</v>
@@ -5207,7 +5272,7 @@
         <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105">
         <v>6061</v>
@@ -5242,7 +5307,7 @@
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C106">
         <v>120868</v>
@@ -5277,7 +5342,7 @@
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107">
         <v>119144</v>
@@ -5312,7 +5377,7 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C108">
         <v>256242</v>
@@ -5347,7 +5412,7 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109">
         <v>228695</v>
@@ -5382,7 +5447,7 @@
         <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110">
         <v>102274</v>
@@ -5417,7 +5482,7 @@
         <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111">
         <v>105843</v>
@@ -5452,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112">
         <v>266957</v>
@@ -5487,7 +5552,7 @@
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113">
         <v>180531</v>
@@ -5522,7 +5587,7 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C114">
         <v>107113</v>
@@ -5557,7 +5622,7 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115">
         <v>106268</v>
@@ -5592,7 +5657,7 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116">
         <v>275900</v>
@@ -5627,7 +5692,7 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117">
         <v>193632</v>
@@ -5662,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118">
         <v>123604</v>
@@ -5697,7 +5762,7 @@
         <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C119">
         <v>110252</v>
@@ -5732,7 +5797,7 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C120">
         <v>250756</v>
@@ -5767,7 +5832,7 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121">
         <v>170088</v>
@@ -5802,7 +5867,7 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122">
         <v>111385</v>
@@ -5837,7 +5902,7 @@
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123">
         <v>106589</v>
@@ -5872,7 +5937,7 @@
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124">
         <v>258956</v>
@@ -5907,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125">
         <v>171556</v>
@@ -5942,7 +6007,7 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C126">
         <v>93088</v>
@@ -5977,7 +6042,7 @@
         <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127">
         <v>90182</v>
@@ -6012,7 +6077,7 @@
         <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128">
         <v>272693</v>
@@ -6047,7 +6112,7 @@
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C129">
         <v>192106</v>
@@ -6082,7 +6147,7 @@
         <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C130">
         <v>103174</v>
@@ -6117,7 +6182,7 @@
         <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131">
         <v>74045</v>
@@ -6152,7 +6217,7 @@
         <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C132">
         <v>272135</v>
@@ -6187,7 +6252,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C133">
         <v>205676</v>
@@ -6222,7 +6287,7 @@
         <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134">
         <v>108104</v>
@@ -6257,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135">
         <v>93256</v>
@@ -6292,7 +6357,7 @@
         <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136">
         <v>268153</v>
@@ -6327,7 +6392,7 @@
         <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137">
         <v>228122</v>
@@ -6362,7 +6427,7 @@
         <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138">
         <v>138150</v>
@@ -6397,7 +6462,7 @@
         <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139">
         <v>105371</v>
@@ -6432,7 +6497,7 @@
         <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140">
         <v>254691</v>
@@ -6467,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141">
         <v>214437</v>
@@ -6502,7 +6567,7 @@
         <v>46</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C142">
         <v>83197</v>
@@ -6537,7 +6602,7 @@
         <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143">
         <v>83248</v>
@@ -6572,7 +6637,7 @@
         <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C144">
         <v>258664</v>
@@ -6607,7 +6672,7 @@
         <v>46</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C145">
         <v>247734</v>
@@ -6642,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C146">
         <v>82193</v>
@@ -6677,7 +6742,7 @@
         <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C147">
         <v>67264</v>
@@ -6712,7 +6777,7 @@
         <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C148">
         <v>278128</v>
@@ -6747,7 +6812,7 @@
         <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149">
         <v>212306</v>
@@ -6782,7 +6847,7 @@
         <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150">
         <v>72423</v>
@@ -6817,7 +6882,7 @@
         <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151">
         <v>29128</v>
@@ -6852,7 +6917,7 @@
         <v>48</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C152">
         <v>276049</v>
@@ -6887,7 +6952,7 @@
         <v>48</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153">
         <v>241545</v>
@@ -6922,7 +6987,7 @@
         <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C154">
         <v>71653</v>
@@ -6957,7 +7022,7 @@
         <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C155">
         <v>30604</v>
@@ -6992,7 +7057,7 @@
         <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C156">
         <v>274534</v>
@@ -7027,7 +7092,7 @@
         <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157">
         <v>239929</v>
@@ -7062,7 +7127,7 @@
         <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C158">
         <v>70457</v>
@@ -7097,7 +7162,7 @@
         <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159">
         <v>67334</v>
@@ -7132,7 +7197,7 @@
         <v>50</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160">
         <v>273676</v>
@@ -7167,7 +7232,7 @@
         <v>50</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161">
         <v>188884</v>
@@ -7202,7 +7267,7 @@
         <v>51</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C162">
         <v>80516</v>
@@ -7237,7 +7302,7 @@
         <v>51</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163">
         <v>32806</v>
@@ -7272,7 +7337,7 @@
         <v>51</v>
       </c>
       <c r="B164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164">
         <v>260738</v>
@@ -7307,7 +7372,7 @@
         <v>51</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165">
         <v>199888</v>
@@ -7342,7 +7407,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166">
         <v>77551</v>
@@ -7377,7 +7442,7 @@
         <v>52</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C167">
         <v>56499</v>
@@ -7412,7 +7477,7 @@
         <v>52</v>
       </c>
       <c r="B168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C168">
         <v>266163</v>
@@ -7447,7 +7512,7 @@
         <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C169">
         <v>197876</v>
@@ -7482,7 +7547,7 @@
         <v>53</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170">
         <v>26646</v>
@@ -7517,7 +7582,7 @@
         <v>53</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171">
         <v>62267</v>
@@ -7552,7 +7617,7 @@
         <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172">
         <v>308448</v>
@@ -7587,7 +7652,7 @@
         <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173">
         <v>164905</v>
@@ -7622,7 +7687,7 @@
         <v>54</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174">
         <v>182655</v>
@@ -7657,7 +7722,7 @@
         <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175">
         <v>101195</v>
@@ -7692,7 +7757,7 @@
         <v>54</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C176">
         <v>242855</v>
@@ -7727,7 +7792,7 @@
         <v>54</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C177">
         <v>188273</v>
@@ -7762,7 +7827,7 @@
         <v>55</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C178">
         <v>181643</v>
@@ -7797,7 +7862,7 @@
         <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C179">
         <v>107856</v>
@@ -7832,7 +7897,7 @@
         <v>55</v>
       </c>
       <c r="B180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C180">
         <v>244904</v>
@@ -7867,7 +7932,7 @@
         <v>55</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C181">
         <v>190198</v>
@@ -7902,7 +7967,7 @@
         <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C182">
         <v>169082</v>
@@ -7937,7 +8002,7 @@
         <v>56</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183">
         <v>95483</v>
@@ -7972,7 +8037,7 @@
         <v>56</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C184">
         <v>255662</v>
@@ -8007,7 +8072,7 @@
         <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185">
         <v>201235</v>
@@ -8042,7 +8107,7 @@
         <v>57</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C186">
         <v>176766</v>
@@ -8077,7 +8142,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C187">
         <v>96433</v>
@@ -8112,7 +8177,7 @@
         <v>57</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C188">
         <v>249597</v>
@@ -8147,7 +8212,7 @@
         <v>57</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C189">
         <v>197962</v>
@@ -8182,7 +8247,7 @@
         <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C190">
         <v>161955</v>
@@ -8217,7 +8282,7 @@
         <v>58</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C191">
         <v>94948</v>
@@ -8252,7 +8317,7 @@
         <v>58</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C192">
         <v>262632</v>
@@ -8287,7 +8352,7 @@
         <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C193">
         <v>206310</v>
@@ -8322,7 +8387,7 @@
         <v>59</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C194">
         <v>169575</v>
@@ -8357,7 +8422,7 @@
         <v>59</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C195">
         <v>102296</v>
@@ -8392,7 +8457,7 @@
         <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C196">
         <v>254974</v>
@@ -8427,7 +8492,7 @@
         <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C197">
         <v>202396</v>
@@ -8462,7 +8527,7 @@
         <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C198">
         <v>132945</v>
@@ -8497,7 +8562,7 @@
         <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C199">
         <v>49789</v>
@@ -8532,7 +8597,7 @@
         <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C200">
         <v>275972</v>
@@ -8567,7 +8632,7 @@
         <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C201">
         <v>218275</v>
@@ -8602,7 +8667,7 @@
         <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202">
         <v>166723</v>
@@ -8637,7 +8702,7 @@
         <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C203">
         <v>102988</v>
@@ -8672,7 +8737,7 @@
         <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C204">
         <v>250596</v>
@@ -8707,7 +8772,7 @@
         <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C205">
         <v>192094</v>
@@ -8742,7 +8807,7 @@
         <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206">
         <v>170850</v>
@@ -8777,7 +8842,7 @@
         <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C207">
         <v>62247</v>
@@ -8812,7 +8877,7 @@
         <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C208">
         <v>252916</v>
@@ -8847,7 +8912,7 @@
         <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C209">
         <v>201610</v>
@@ -8882,7 +8947,7 @@
         <v>63</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>159175</v>
@@ -8917,7 +8982,7 @@
         <v>63</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C211">
         <v>89494</v>
@@ -8952,7 +9017,7 @@
         <v>63</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C212">
         <v>266926</v>
@@ -8987,7 +9052,7 @@
         <v>63</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213">
         <v>211357</v>
@@ -9022,7 +9087,7 @@
         <v>64</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214">
         <v>183037</v>
@@ -9057,7 +9122,7 @@
         <v>64</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215">
         <v>57237</v>
@@ -9092,7 +9157,7 @@
         <v>64</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216">
         <v>244178</v>
@@ -9127,7 +9192,7 @@
         <v>64</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217">
         <v>192648</v>
@@ -9162,7 +9227,7 @@
         <v>65</v>
       </c>
       <c r="B218" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218">
         <v>79029</v>
@@ -9197,7 +9262,7 @@
         <v>65</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219">
         <v>71182</v>
@@ -9232,7 +9297,7 @@
         <v>65</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220">
         <v>298680</v>
@@ -9267,7 +9332,7 @@
         <v>65</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C221">
         <v>238724</v>
@@ -9302,7 +9367,7 @@
         <v>66</v>
       </c>
       <c r="B222" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C222">
         <v>75344</v>
@@ -9337,7 +9402,7 @@
         <v>66</v>
       </c>
       <c r="B223" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223">
         <v>73570</v>
@@ -9372,7 +9437,7 @@
         <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224">
         <v>289526</v>
@@ -9407,7 +9472,7 @@
         <v>66</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225">
         <v>218691</v>
@@ -9442,7 +9507,7 @@
         <v>67</v>
       </c>
       <c r="B226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C226">
         <v>74511</v>
@@ -9477,7 +9542,7 @@
         <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227">
         <v>75515</v>
@@ -9512,7 +9577,7 @@
         <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C228">
         <v>296631</v>
@@ -9547,7 +9612,7 @@
         <v>67</v>
       </c>
       <c r="B229" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C229">
         <v>211542</v>
@@ -9582,7 +9647,7 @@
         <v>68</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C230">
         <v>74321</v>
@@ -9617,7 +9682,7 @@
         <v>68</v>
       </c>
       <c r="B231" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231">
         <v>68275</v>
@@ -9652,7 +9717,7 @@
         <v>68</v>
       </c>
       <c r="B232" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C232">
         <v>249487</v>
@@ -9687,7 +9752,7 @@
         <v>68</v>
       </c>
       <c r="B233" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C233">
         <v>207102</v>
@@ -9722,7 +9787,7 @@
         <v>69</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C234">
         <v>48581</v>
@@ -9757,7 +9822,7 @@
         <v>69</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235">
         <v>40786</v>
@@ -9792,7 +9857,7 @@
         <v>69</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C236">
         <v>281403</v>
@@ -9827,7 +9892,7 @@
         <v>69</v>
       </c>
       <c r="B237" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C237">
         <v>245069</v>
@@ -9862,7 +9927,7 @@
         <v>70</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C238">
         <v>67481</v>
@@ -9897,7 +9962,7 @@
         <v>70</v>
       </c>
       <c r="B239" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C239">
         <v>53710</v>
@@ -9932,7 +9997,7 @@
         <v>70</v>
       </c>
       <c r="B240" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C240">
         <v>245968</v>
@@ -9967,7 +10032,7 @@
         <v>70</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C241">
         <v>269605</v>
@@ -10002,7 +10067,7 @@
         <v>71</v>
       </c>
       <c r="B242" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C242">
         <v>66464</v>
@@ -10037,7 +10102,7 @@
         <v>71</v>
       </c>
       <c r="B243" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C243">
         <v>35933</v>
@@ -10072,7 +10137,7 @@
         <v>71</v>
       </c>
       <c r="B244" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C244">
         <v>266036</v>
@@ -10107,7 +10172,7 @@
         <v>71</v>
       </c>
       <c r="B245" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C245">
         <v>51587</v>
@@ -10142,7 +10207,7 @@
         <v>72</v>
       </c>
       <c r="B246" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C246">
         <v>62791</v>
@@ -10177,7 +10242,7 @@
         <v>72</v>
       </c>
       <c r="B247" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C247">
         <v>38519</v>
@@ -10212,7 +10277,7 @@
         <v>72</v>
       </c>
       <c r="B248" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C248">
         <v>237582</v>
@@ -10247,7 +10312,7 @@
         <v>72</v>
       </c>
       <c r="B249" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C249">
         <v>176308</v>
@@ -10282,7 +10347,7 @@
         <v>73</v>
       </c>
       <c r="B250" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C250">
         <v>72292</v>
@@ -10317,7 +10382,7 @@
         <v>73</v>
       </c>
       <c r="B251" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C251">
         <v>44487</v>
@@ -10352,7 +10417,7 @@
         <v>73</v>
       </c>
       <c r="B252" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C252">
         <v>268608</v>
@@ -10387,7 +10452,7 @@
         <v>73</v>
       </c>
       <c r="B253" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C253">
         <v>232015</v>
@@ -10422,7 +10487,7 @@
         <v>74</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C254">
         <v>65242</v>
@@ -10457,7 +10522,7 @@
         <v>74</v>
       </c>
       <c r="B255" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C255">
         <v>52493</v>
@@ -10492,7 +10557,7 @@
         <v>74</v>
       </c>
       <c r="B256" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C256">
         <v>258927</v>
@@ -10527,7 +10592,7 @@
         <v>74</v>
       </c>
       <c r="B257" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C257">
         <v>245111</v>
@@ -10562,7 +10627,7 @@
         <v>75</v>
       </c>
       <c r="B258" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C258">
         <v>74521</v>
@@ -10597,7 +10662,7 @@
         <v>75</v>
       </c>
       <c r="B259" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C259">
         <v>47022</v>
@@ -10632,7 +10697,7 @@
         <v>75</v>
       </c>
       <c r="B260" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C260">
         <v>281166</v>
@@ -10667,7 +10732,7 @@
         <v>75</v>
       </c>
       <c r="B261" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C261">
         <v>61763</v>
@@ -10702,7 +10767,7 @@
         <v>76</v>
       </c>
       <c r="B262" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C262">
         <v>69761</v>
@@ -10737,7 +10802,7 @@
         <v>76</v>
       </c>
       <c r="B263" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C263">
         <v>62615</v>
@@ -10772,7 +10837,7 @@
         <v>76</v>
       </c>
       <c r="B264" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C264">
         <v>269459</v>
@@ -10807,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="B265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C265">
         <v>239704</v>
@@ -10842,7 +10907,7 @@
         <v>77</v>
       </c>
       <c r="B266" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C266">
         <v>65700</v>
@@ -10877,7 +10942,7 @@
         <v>77</v>
       </c>
       <c r="B267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C267">
         <v>47836</v>
@@ -10912,7 +10977,7 @@
         <v>77</v>
       </c>
       <c r="B268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C268">
         <v>244617</v>
@@ -10947,7 +11012,7 @@
         <v>77</v>
       </c>
       <c r="B269" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C269">
         <v>242905</v>
@@ -10982,7 +11047,7 @@
         <v>78</v>
       </c>
       <c r="B270" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C270">
         <v>65303</v>
@@ -11017,7 +11082,7 @@
         <v>78</v>
       </c>
       <c r="B271" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C271">
         <v>42302</v>
@@ -11052,7 +11117,7 @@
         <v>78</v>
       </c>
       <c r="B272" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C272">
         <v>262078</v>
@@ -11087,7 +11152,7 @@
         <v>78</v>
       </c>
       <c r="B273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C273">
         <v>214956</v>
@@ -11122,7 +11187,7 @@
         <v>79</v>
       </c>
       <c r="B274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C274">
         <v>66115</v>
@@ -11157,7 +11222,7 @@
         <v>79</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C275">
         <v>43879</v>
@@ -11192,7 +11257,7 @@
         <v>79</v>
       </c>
       <c r="B276" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C276">
         <v>261232</v>
@@ -11227,7 +11292,7 @@
         <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C277">
         <v>245952</v>
@@ -11262,7 +11327,7 @@
         <v>80</v>
       </c>
       <c r="B278" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C278">
         <v>64813</v>
@@ -11297,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C279">
         <v>39708</v>
@@ -11332,7 +11397,7 @@
         <v>80</v>
       </c>
       <c r="B280" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C280">
         <v>261564</v>
@@ -11367,7 +11432,7 @@
         <v>80</v>
       </c>
       <c r="B281" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C281">
         <v>234222</v>
@@ -11402,7 +11467,7 @@
         <v>81</v>
       </c>
       <c r="B282" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C282">
         <v>122409</v>
@@ -11437,7 +11502,7 @@
         <v>81</v>
       </c>
       <c r="B283" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C283">
         <v>123272</v>
@@ -11472,7 +11537,7 @@
         <v>81</v>
       </c>
       <c r="B284" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C284">
         <v>287691</v>
@@ -11507,7 +11572,7 @@
         <v>81</v>
       </c>
       <c r="B285" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C285">
         <v>207507</v>
@@ -11542,7 +11607,7 @@
         <v>82</v>
       </c>
       <c r="B286" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C286">
         <v>137429</v>
@@ -11577,7 +11642,7 @@
         <v>82</v>
       </c>
       <c r="B287" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C287">
         <v>97283</v>
@@ -11612,7 +11677,7 @@
         <v>82</v>
       </c>
       <c r="B288" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C288">
         <v>249216</v>
@@ -11647,7 +11712,7 @@
         <v>82</v>
       </c>
       <c r="B289" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C289">
         <v>190974</v>
@@ -11682,7 +11747,7 @@
         <v>83</v>
       </c>
       <c r="B290" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C290">
         <v>99831</v>
@@ -11717,7 +11782,7 @@
         <v>83</v>
       </c>
       <c r="B291" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C291">
         <v>84290</v>
@@ -11752,7 +11817,7 @@
         <v>83</v>
       </c>
       <c r="B292" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C292">
         <v>274491</v>
@@ -11787,7 +11852,7 @@
         <v>83</v>
       </c>
       <c r="B293" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C293">
         <v>191822</v>
@@ -11822,7 +11887,7 @@
         <v>84</v>
       </c>
       <c r="B294" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C294">
         <v>91389</v>
@@ -11857,7 +11922,7 @@
         <v>84</v>
       </c>
       <c r="B295" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C295">
         <v>84222</v>
@@ -11892,7 +11957,7 @@
         <v>84</v>
       </c>
       <c r="B296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C296">
         <v>263212</v>
@@ -11927,7 +11992,7 @@
         <v>84</v>
       </c>
       <c r="B297" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C297">
         <v>188351</v>
@@ -11962,7 +12027,7 @@
         <v>85</v>
       </c>
       <c r="B298" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C298">
         <v>75700</v>
@@ -11997,7 +12062,7 @@
         <v>85</v>
       </c>
       <c r="B299" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C299">
         <v>87882</v>
@@ -12032,7 +12097,7 @@
         <v>85</v>
       </c>
       <c r="B300" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C300">
         <v>273299</v>
@@ -12067,7 +12132,7 @@
         <v>85</v>
       </c>
       <c r="B301" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C301">
         <v>188981</v>
@@ -12102,7 +12167,7 @@
         <v>86</v>
       </c>
       <c r="B302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C302">
         <v>141039</v>
@@ -12137,7 +12202,7 @@
         <v>86</v>
       </c>
       <c r="B303" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C303">
         <v>120580</v>
@@ -12172,7 +12237,7 @@
         <v>86</v>
       </c>
       <c r="B304" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C304">
         <v>242866</v>
@@ -12207,7 +12272,7 @@
         <v>86</v>
       </c>
       <c r="B305" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C305">
         <v>206224</v>
@@ -12242,7 +12307,7 @@
         <v>87</v>
       </c>
       <c r="B306" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C306">
         <v>141965</v>
@@ -12277,7 +12342,7 @@
         <v>87</v>
       </c>
       <c r="B307" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C307">
         <v>103854</v>
@@ -12312,7 +12377,7 @@
         <v>87</v>
       </c>
       <c r="B308" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C308">
         <v>254045</v>
@@ -12347,7 +12412,7 @@
         <v>87</v>
       </c>
       <c r="B309" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C309">
         <v>221334</v>
@@ -12382,7 +12447,7 @@
         <v>88</v>
       </c>
       <c r="B310" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C310">
         <v>86100</v>
@@ -12417,7 +12482,7 @@
         <v>88</v>
       </c>
       <c r="B311" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C311">
         <v>59446</v>
@@ -12452,7 +12517,7 @@
         <v>88</v>
       </c>
       <c r="B312" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C312">
         <v>270095</v>
@@ -12487,7 +12552,7 @@
         <v>88</v>
       </c>
       <c r="B313" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C313">
         <v>197187</v>
@@ -12522,7 +12587,7 @@
         <v>89</v>
       </c>
       <c r="B314" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C314">
         <v>104991</v>
@@ -12557,7 +12622,7 @@
         <v>89</v>
       </c>
       <c r="B315" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C315">
         <v>67252</v>
@@ -12592,7 +12657,7 @@
         <v>89</v>
       </c>
       <c r="B316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C316">
         <v>261774</v>
@@ -12627,7 +12692,7 @@
         <v>89</v>
       </c>
       <c r="B317" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C317">
         <v>204290</v>
@@ -12662,7 +12727,7 @@
         <v>90</v>
       </c>
       <c r="B318" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C318">
         <v>110598</v>
@@ -12697,7 +12762,7 @@
         <v>90</v>
       </c>
       <c r="B319" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C319">
         <v>95110</v>
@@ -12732,7 +12797,7 @@
         <v>90</v>
       </c>
       <c r="B320" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C320">
         <v>260420</v>
@@ -12767,7 +12832,7 @@
         <v>90</v>
       </c>
       <c r="B321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C321">
         <v>133201</v>
@@ -12802,7 +12867,7 @@
         <v>91</v>
       </c>
       <c r="B322" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C322">
         <v>82046</v>
@@ -12837,7 +12902,7 @@
         <v>91</v>
       </c>
       <c r="B323" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C323">
         <v>87823</v>
@@ -12872,7 +12937,7 @@
         <v>91</v>
       </c>
       <c r="B324" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C324">
         <v>270146</v>
@@ -12907,7 +12972,7 @@
         <v>91</v>
       </c>
       <c r="B325" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C325">
         <v>89465</v>
@@ -12942,7 +13007,7 @@
         <v>92</v>
       </c>
       <c r="B326" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C326">
         <v>99176</v>
@@ -12977,7 +13042,7 @@
         <v>92</v>
       </c>
       <c r="B327" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C327">
         <v>85680</v>
@@ -13012,7 +13077,7 @@
         <v>92</v>
       </c>
       <c r="B328" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C328">
         <v>266823</v>
@@ -13047,7 +13112,7 @@
         <v>92</v>
       </c>
       <c r="B329" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C329">
         <v>144373</v>
@@ -13082,7 +13147,7 @@
         <v>93</v>
       </c>
       <c r="B330" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C330">
         <v>133213</v>
@@ -13117,7 +13182,7 @@
         <v>93</v>
       </c>
       <c r="B331" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C331">
         <v>102581</v>
@@ -13152,7 +13217,7 @@
         <v>93</v>
       </c>
       <c r="B332" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C332">
         <v>282365</v>
@@ -13187,7 +13252,7 @@
         <v>93</v>
       </c>
       <c r="B333" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C333">
         <v>172687</v>
@@ -13222,7 +13287,7 @@
         <v>94</v>
       </c>
       <c r="B334" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C334">
         <v>111028</v>
@@ -13257,7 +13322,7 @@
         <v>94</v>
       </c>
       <c r="B335" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C335">
         <v>60718</v>
@@ -13292,7 +13357,7 @@
         <v>94</v>
       </c>
       <c r="B336" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C336">
         <v>303820</v>
@@ -13327,7 +13392,7 @@
         <v>94</v>
       </c>
       <c r="B337" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C337">
         <v>259559</v>
@@ -13362,7 +13427,7 @@
         <v>95</v>
       </c>
       <c r="B338" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C338">
         <v>96982</v>
@@ -13397,7 +13462,7 @@
         <v>95</v>
       </c>
       <c r="B339" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C339">
         <v>72696</v>
@@ -13432,7 +13497,7 @@
         <v>95</v>
       </c>
       <c r="B340" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C340">
         <v>260525</v>
@@ -13467,7 +13532,7 @@
         <v>95</v>
       </c>
       <c r="B341" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C341">
         <v>19726</v>
@@ -13502,7 +13567,7 @@
         <v>96</v>
       </c>
       <c r="B342" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C342">
         <v>105516</v>
@@ -13537,7 +13602,7 @@
         <v>96</v>
       </c>
       <c r="B343" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C343">
         <v>105722</v>
@@ -13572,7 +13637,7 @@
         <v>96</v>
       </c>
       <c r="B344" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C344">
         <v>280788</v>
@@ -13607,7 +13672,7 @@
         <v>96</v>
       </c>
       <c r="B345" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C345">
         <v>34061</v>
@@ -13642,7 +13707,7 @@
         <v>97</v>
       </c>
       <c r="B346" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C346">
         <v>92382</v>
@@ -13677,7 +13742,7 @@
         <v>97</v>
       </c>
       <c r="B347" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C347">
         <v>94675</v>
@@ -13712,7 +13777,7 @@
         <v>97</v>
       </c>
       <c r="B348" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C348">
         <v>304873</v>
@@ -13747,7 +13812,7 @@
         <v>97</v>
       </c>
       <c r="B349" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C349">
         <v>46094</v>
@@ -13782,7 +13847,7 @@
         <v>98</v>
       </c>
       <c r="B350" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C350">
         <v>142151</v>
@@ -13817,7 +13882,7 @@
         <v>98</v>
       </c>
       <c r="B351" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C351">
         <v>84722</v>
@@ -13852,7 +13917,7 @@
         <v>98</v>
       </c>
       <c r="B352" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C352">
         <v>237250</v>
@@ -13887,7 +13952,7 @@
         <v>98</v>
       </c>
       <c r="B353" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C353">
         <v>208351</v>
@@ -13922,7 +13987,7 @@
         <v>99</v>
       </c>
       <c r="B354" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C354">
         <v>151891</v>
@@ -13957,7 +14022,7 @@
         <v>99</v>
       </c>
       <c r="B355" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C355">
         <v>125873</v>
@@ -13992,7 +14057,7 @@
         <v>99</v>
       </c>
       <c r="B356" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C356">
         <v>243905</v>
@@ -14027,7 +14092,7 @@
         <v>99</v>
       </c>
       <c r="B357" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C357">
         <v>184843</v>
@@ -14062,7 +14127,7 @@
         <v>100</v>
       </c>
       <c r="B358" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C358">
         <v>107732</v>
@@ -14097,7 +14162,7 @@
         <v>100</v>
       </c>
       <c r="B359" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C359">
         <v>92071</v>
@@ -14132,7 +14197,7 @@
         <v>100</v>
       </c>
       <c r="B360" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C360">
         <v>275413</v>
@@ -14167,7 +14232,7 @@
         <v>100</v>
       </c>
       <c r="B361" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C361">
         <v>220216</v>
@@ -14202,7 +14267,7 @@
         <v>101</v>
       </c>
       <c r="B362" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C362">
         <v>85962</v>
@@ -14237,7 +14302,7 @@
         <v>101</v>
       </c>
       <c r="B363" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C363">
         <v>48691</v>
@@ -14272,7 +14337,7 @@
         <v>101</v>
       </c>
       <c r="B364" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C364">
         <v>298459</v>
@@ -14307,7 +14372,7 @@
         <v>101</v>
       </c>
       <c r="B365" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C365">
         <v>257100</v>
@@ -14342,7 +14407,7 @@
         <v>102</v>
       </c>
       <c r="B366" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C366">
         <v>85421</v>
@@ -14377,7 +14442,7 @@
         <v>102</v>
       </c>
       <c r="B367" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C367">
         <v>69151</v>
@@ -14412,7 +14477,7 @@
         <v>102</v>
       </c>
       <c r="B368" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C368">
         <v>289887</v>
@@ -14447,7 +14512,7 @@
         <v>102</v>
       </c>
       <c r="B369" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C369">
         <v>245153</v>
@@ -14482,7 +14547,7 @@
         <v>103</v>
       </c>
       <c r="B370" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C370">
         <v>110805</v>
@@ -14517,7 +14582,7 @@
         <v>103</v>
       </c>
       <c r="B371" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C371">
         <v>83369</v>
@@ -14552,7 +14617,7 @@
         <v>103</v>
       </c>
       <c r="B372" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C372">
         <v>247607</v>
@@ -14587,7 +14652,7 @@
         <v>103</v>
       </c>
       <c r="B373" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C373">
         <v>224703</v>
@@ -14622,7 +14687,7 @@
         <v>104</v>
       </c>
       <c r="B374" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C374">
         <v>90246</v>
@@ -14657,7 +14722,7 @@
         <v>104</v>
       </c>
       <c r="B375" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C375">
         <v>68017</v>
@@ -14692,7 +14757,7 @@
         <v>104</v>
       </c>
       <c r="B376" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C376">
         <v>267491</v>
@@ -14727,7 +14792,7 @@
         <v>104</v>
       </c>
       <c r="B377" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C377">
         <v>266367</v>
@@ -14762,7 +14827,7 @@
         <v>105</v>
       </c>
       <c r="B378" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C378">
         <v>101437</v>
@@ -14797,7 +14862,7 @@
         <v>105</v>
       </c>
       <c r="B379" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C379">
         <v>72965</v>
@@ -14832,7 +14897,7 @@
         <v>105</v>
       </c>
       <c r="B380" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C380">
         <v>291113</v>
@@ -14867,7 +14932,7 @@
         <v>105</v>
       </c>
       <c r="B381" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C381">
         <v>257253</v>
@@ -14902,7 +14967,7 @@
         <v>106</v>
       </c>
       <c r="B382" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C382">
         <v>82043</v>
@@ -14937,7 +15002,7 @@
         <v>106</v>
       </c>
       <c r="B383" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C383">
         <v>60433</v>
@@ -14972,7 +15037,7 @@
         <v>106</v>
       </c>
       <c r="B384" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C384">
         <v>292102</v>
@@ -15007,7 +15072,7 @@
         <v>106</v>
       </c>
       <c r="B385" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C385">
         <v>259184</v>
@@ -15042,7 +15107,7 @@
         <v>107</v>
       </c>
       <c r="B386" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C386">
         <v>107639</v>
@@ -15077,7 +15142,7 @@
         <v>107</v>
       </c>
       <c r="B387" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C387">
         <v>93579</v>
@@ -15112,7 +15177,7 @@
         <v>107</v>
       </c>
       <c r="B388" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C388">
         <v>274945</v>
@@ -15147,7 +15212,7 @@
         <v>107</v>
       </c>
       <c r="B389" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C389">
         <v>218888</v>
@@ -15182,7 +15247,7 @@
         <v>108</v>
       </c>
       <c r="B390" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C390">
         <v>107870</v>
@@ -15217,7 +15282,7 @@
         <v>108</v>
       </c>
       <c r="B391" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C391">
         <v>81453</v>
@@ -15252,7 +15317,7 @@
         <v>108</v>
       </c>
       <c r="B392" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C392">
         <v>281084</v>
@@ -15287,7 +15352,7 @@
         <v>108</v>
       </c>
       <c r="B393" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C393">
         <v>231723</v>
@@ -15322,7 +15387,7 @@
         <v>109</v>
       </c>
       <c r="B394" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C394">
         <v>93748</v>
@@ -15357,7 +15422,7 @@
         <v>109</v>
       </c>
       <c r="B395" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C395">
         <v>62524</v>
@@ -15392,7 +15457,7 @@
         <v>109</v>
       </c>
       <c r="B396" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C396">
         <v>311006</v>
@@ -15427,7 +15492,7 @@
         <v>109</v>
       </c>
       <c r="B397" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C397">
         <v>24591</v>
@@ -15462,7 +15527,7 @@
         <v>110</v>
       </c>
       <c r="B398" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C398">
         <v>129491</v>
@@ -15497,7 +15562,7 @@
         <v>110</v>
       </c>
       <c r="B399" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C399">
         <v>96345</v>
@@ -15532,7 +15597,7 @@
         <v>110</v>
       </c>
       <c r="B400" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C400">
         <v>267804</v>
@@ -15567,7 +15632,7 @@
         <v>110</v>
       </c>
       <c r="B401" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C401">
         <v>227232</v>
@@ -15602,7 +15667,7 @@
         <v>111</v>
       </c>
       <c r="B402" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C402">
         <v>117887</v>
@@ -15637,7 +15702,7 @@
         <v>111</v>
       </c>
       <c r="B403" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C403">
         <v>90820</v>
@@ -15672,7 +15737,7 @@
         <v>111</v>
       </c>
       <c r="B404" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C404">
         <v>271713</v>
@@ -15707,7 +15772,7 @@
         <v>111</v>
       </c>
       <c r="B405" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C405">
         <v>259966</v>
@@ -15742,7 +15807,7 @@
         <v>112</v>
       </c>
       <c r="B406" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C406">
         <v>127521</v>
@@ -15777,7 +15842,7 @@
         <v>112</v>
       </c>
       <c r="B407" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C407">
         <v>95723</v>
@@ -15812,7 +15877,7 @@
         <v>112</v>
       </c>
       <c r="B408" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C408">
         <v>269705</v>
@@ -15847,7 +15912,7 @@
         <v>112</v>
       </c>
       <c r="B409" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C409">
         <v>154155</v>
@@ -15882,7 +15947,7 @@
         <v>113</v>
       </c>
       <c r="B410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C410">
         <v>158331</v>
@@ -15917,7 +15982,7 @@
         <v>113</v>
       </c>
       <c r="B411" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C411">
         <v>87669</v>
@@ -15952,7 +16017,7 @@
         <v>113</v>
       </c>
       <c r="B412" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C412">
         <v>251846</v>
@@ -15987,7 +16052,7 @@
         <v>113</v>
       </c>
       <c r="B413" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C413">
         <v>214649</v>
@@ -16022,7 +16087,7 @@
         <v>114</v>
       </c>
       <c r="B414" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C414">
         <v>127220</v>
@@ -16057,7 +16122,7 @@
         <v>114</v>
       </c>
       <c r="B415" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C415">
         <v>96582</v>
@@ -16092,7 +16157,7 @@
         <v>114</v>
       </c>
       <c r="B416" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C416">
         <v>293478</v>
@@ -16127,7 +16192,7 @@
         <v>114</v>
       </c>
       <c r="B417" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C417">
         <v>209142</v>
@@ -16162,7 +16227,7 @@
         <v>115</v>
       </c>
       <c r="B418" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C418">
         <v>149891</v>
@@ -16197,7 +16262,7 @@
         <v>115</v>
       </c>
       <c r="B419" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C419">
         <v>127634</v>
@@ -16232,7 +16297,7 @@
         <v>115</v>
       </c>
       <c r="B420" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C420">
         <v>64829</v>
@@ -16267,7 +16332,7 @@
         <v>115</v>
       </c>
       <c r="B421" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C421">
         <v>36478</v>
@@ -16302,7 +16367,7 @@
         <v>116</v>
       </c>
       <c r="B422" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C422">
         <v>124478</v>
@@ -16337,7 +16402,7 @@
         <v>116</v>
       </c>
       <c r="B423" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C423">
         <v>90194</v>
@@ -16372,7 +16437,7 @@
         <v>116</v>
       </c>
       <c r="B424" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C424">
         <v>259785</v>
@@ -16407,7 +16472,7 @@
         <v>116</v>
       </c>
       <c r="B425" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C425">
         <v>243958</v>
@@ -16442,7 +16507,7 @@
         <v>117</v>
       </c>
       <c r="B426" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C426">
         <v>108028</v>
@@ -16477,7 +16542,7 @@
         <v>117</v>
       </c>
       <c r="B427" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C427">
         <v>103215</v>
@@ -16512,7 +16577,7 @@
         <v>117</v>
       </c>
       <c r="B428" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C428">
         <v>244715</v>
@@ -16547,7 +16612,7 @@
         <v>117</v>
       </c>
       <c r="B429" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C429">
         <v>231859</v>
@@ -16582,7 +16647,7 @@
         <v>118</v>
       </c>
       <c r="B430" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C430">
         <v>121633</v>
@@ -16617,7 +16682,7 @@
         <v>118</v>
       </c>
       <c r="B431" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C431">
         <v>79895</v>
@@ -16652,7 +16717,7 @@
         <v>118</v>
       </c>
       <c r="B432" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C432">
         <v>234818</v>
@@ -16687,7 +16752,7 @@
         <v>118</v>
       </c>
       <c r="B433" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C433">
         <v>219168</v>
@@ -16722,7 +16787,7 @@
         <v>119</v>
       </c>
       <c r="B434" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C434">
         <v>116529</v>
@@ -16757,7 +16822,7 @@
         <v>119</v>
       </c>
       <c r="B435" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C435">
         <v>86231</v>
@@ -16792,7 +16857,7 @@
         <v>119</v>
       </c>
       <c r="B436" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C436">
         <v>237832</v>
@@ -16827,7 +16892,7 @@
         <v>119</v>
       </c>
       <c r="B437" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C437">
         <v>204543</v>
@@ -16862,7 +16927,7 @@
         <v>120</v>
       </c>
       <c r="B438" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C438">
         <v>121794</v>
@@ -16897,7 +16962,7 @@
         <v>120</v>
       </c>
       <c r="B439" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C439">
         <v>84353</v>
@@ -16932,7 +16997,7 @@
         <v>120</v>
       </c>
       <c r="B440" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C440">
         <v>284014</v>
@@ -16967,7 +17032,7 @@
         <v>120</v>
       </c>
       <c r="B441" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C441">
         <v>211121</v>
@@ -17002,7 +17067,7 @@
         <v>121</v>
       </c>
       <c r="B442" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C442">
         <v>128509</v>
@@ -17037,7 +17102,7 @@
         <v>121</v>
       </c>
       <c r="B443" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C443">
         <v>121978</v>
@@ -17072,7 +17137,7 @@
         <v>121</v>
       </c>
       <c r="B444" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C444">
         <v>276014</v>
@@ -17107,7 +17172,7 @@
         <v>121</v>
       </c>
       <c r="B445" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C445">
         <v>216608</v>
@@ -17142,7 +17207,7 @@
         <v>122</v>
       </c>
       <c r="B446" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C446">
         <v>121009</v>
@@ -17177,7 +17242,7 @@
         <v>122</v>
       </c>
       <c r="B447" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C447">
         <v>98183</v>
@@ -17212,7 +17277,7 @@
         <v>122</v>
       </c>
       <c r="B448" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C448">
         <v>260064</v>
@@ -17247,7 +17312,7 @@
         <v>122</v>
       </c>
       <c r="B449" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C449">
         <v>223074</v>
@@ -17282,7 +17347,7 @@
         <v>123</v>
       </c>
       <c r="B450" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C450">
         <v>147572</v>
@@ -17317,7 +17382,7 @@
         <v>123</v>
       </c>
       <c r="B451" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C451">
         <v>100024</v>
@@ -17352,7 +17417,7 @@
         <v>123</v>
       </c>
       <c r="B452" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C452">
         <v>247734</v>
@@ -17387,7 +17452,7 @@
         <v>123</v>
       </c>
       <c r="B453" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C453">
         <v>191811</v>
@@ -17422,7 +17487,7 @@
         <v>124</v>
       </c>
       <c r="B454" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C454">
         <v>139911</v>
@@ -17457,7 +17522,7 @@
         <v>124</v>
       </c>
       <c r="B455" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C455">
         <v>65179</v>
@@ -17492,7 +17557,7 @@
         <v>124</v>
       </c>
       <c r="B456" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C456">
         <v>253457</v>
@@ -17527,7 +17592,7 @@
         <v>124</v>
       </c>
       <c r="B457" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C457">
         <v>187617</v>
@@ -17562,7 +17627,7 @@
         <v>125</v>
       </c>
       <c r="B458" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C458">
         <v>143663</v>
@@ -17597,7 +17662,7 @@
         <v>125</v>
       </c>
       <c r="B459" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C459">
         <v>82964</v>
@@ -17632,7 +17697,7 @@
         <v>125</v>
       </c>
       <c r="B460" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C460">
         <v>251928</v>
@@ -17667,7 +17732,7 @@
         <v>125</v>
       </c>
       <c r="B461" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C461">
         <v>179020</v>
@@ -17702,7 +17767,7 @@
         <v>126</v>
       </c>
       <c r="B462" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C462">
         <v>142039</v>
@@ -17737,7 +17802,7 @@
         <v>126</v>
       </c>
       <c r="B463" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C463">
         <v>125515</v>
@@ -17772,7 +17837,7 @@
         <v>126</v>
       </c>
       <c r="B464" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C464">
         <v>261589</v>
@@ -17807,7 +17872,7 @@
         <v>126</v>
       </c>
       <c r="B465" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C465">
         <v>184315</v>
@@ -17842,7 +17907,7 @@
         <v>127</v>
       </c>
       <c r="B466" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C466">
         <v>155294</v>
@@ -17877,7 +17942,7 @@
         <v>127</v>
       </c>
       <c r="B467" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C467">
         <v>160913</v>
@@ -17912,7 +17977,7 @@
         <v>127</v>
       </c>
       <c r="B468" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C468">
         <v>258106</v>
@@ -17947,7 +18012,7 @@
         <v>127</v>
       </c>
       <c r="B469" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C469">
         <v>13098</v>
@@ -17982,7 +18047,7 @@
         <v>128</v>
       </c>
       <c r="B470" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C470">
         <v>156182</v>
@@ -18017,7 +18082,7 @@
         <v>128</v>
       </c>
       <c r="B471" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C471">
         <v>112206</v>
@@ -18052,7 +18117,7 @@
         <v>128</v>
       </c>
       <c r="B472" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C472">
         <v>252542</v>
@@ -18087,7 +18152,7 @@
         <v>128</v>
       </c>
       <c r="B473" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C473">
         <v>163941</v>
@@ -18122,7 +18187,7 @@
         <v>129</v>
       </c>
       <c r="B474" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C474">
         <v>84731</v>
@@ -18157,7 +18222,7 @@
         <v>129</v>
       </c>
       <c r="B475" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C475">
         <v>58096</v>
@@ -18192,7 +18257,7 @@
         <v>129</v>
       </c>
       <c r="B476" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C476">
         <v>283667</v>
@@ -18227,7 +18292,7 @@
         <v>129</v>
       </c>
       <c r="B477" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C477">
         <v>251601</v>
@@ -18262,7 +18327,7 @@
         <v>130</v>
       </c>
       <c r="B478" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C478">
         <v>133856</v>
@@ -18297,7 +18362,7 @@
         <v>130</v>
       </c>
       <c r="B479" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C479">
         <v>95473</v>
@@ -18332,7 +18397,7 @@
         <v>130</v>
       </c>
       <c r="B480" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C480">
         <v>261127</v>
@@ -18367,7 +18432,7 @@
         <v>130</v>
       </c>
       <c r="B481" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C481">
         <v>215089</v>
@@ -18402,7 +18467,7 @@
         <v>131</v>
       </c>
       <c r="B482" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C482">
         <v>64107</v>
@@ -18437,7 +18502,7 @@
         <v>131</v>
       </c>
       <c r="B483" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C483">
         <v>43376</v>
@@ -18472,7 +18537,7 @@
         <v>131</v>
       </c>
       <c r="B484" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C484">
         <v>270716</v>
@@ -18507,7 +18572,7 @@
         <v>131</v>
       </c>
       <c r="B485" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C485">
         <v>263886</v>
@@ -18542,7 +18607,7 @@
         <v>132</v>
       </c>
       <c r="B486" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C486">
         <v>69734</v>
@@ -18577,7 +18642,7 @@
         <v>132</v>
       </c>
       <c r="B487" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C487">
         <v>59734</v>
@@ -18612,7 +18677,7 @@
         <v>132</v>
       </c>
       <c r="B488" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C488">
         <v>275680</v>
@@ -18647,7 +18712,7 @@
         <v>132</v>
       </c>
       <c r="B489" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C489">
         <v>196149</v>
@@ -18682,7 +18747,7 @@
         <v>133</v>
       </c>
       <c r="B490" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C490">
         <v>91028</v>
@@ -18717,7 +18782,7 @@
         <v>133</v>
       </c>
       <c r="B491" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C491">
         <v>67219</v>
@@ -18752,7 +18817,7 @@
         <v>133</v>
       </c>
       <c r="B492" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C492">
         <v>258703</v>
@@ -18787,7 +18852,7 @@
         <v>133</v>
       </c>
       <c r="B493" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C493">
         <v>276001</v>
@@ -18822,7 +18887,7 @@
         <v>134</v>
       </c>
       <c r="B494" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C494">
         <v>77856</v>
@@ -18857,7 +18922,7 @@
         <v>134</v>
       </c>
       <c r="B495" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C495">
         <v>71674</v>
@@ -18892,7 +18957,7 @@
         <v>134</v>
       </c>
       <c r="B496" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C496">
         <v>271505</v>
@@ -18927,7 +18992,7 @@
         <v>134</v>
       </c>
       <c r="B497" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C497">
         <v>243742</v>
@@ -18962,7 +19027,7 @@
         <v>135</v>
       </c>
       <c r="B498" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C498">
         <v>69819</v>
@@ -18997,7 +19062,7 @@
         <v>135</v>
       </c>
       <c r="B499" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C499">
         <v>52765</v>
@@ -19032,7 +19097,7 @@
         <v>135</v>
       </c>
       <c r="B500" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C500">
         <v>278760</v>
@@ -19067,7 +19132,7 @@
         <v>135</v>
       </c>
       <c r="B501" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C501">
         <v>60013</v>
@@ -19102,7 +19167,7 @@
         <v>136</v>
       </c>
       <c r="B502" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C502">
         <v>68615</v>
@@ -19137,7 +19202,7 @@
         <v>136</v>
       </c>
       <c r="B503" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C503">
         <v>66996</v>
@@ -19172,7 +19237,7 @@
         <v>136</v>
       </c>
       <c r="B504" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C504">
         <v>276535</v>
@@ -19207,7 +19272,7 @@
         <v>136</v>
       </c>
       <c r="B505" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C505">
         <v>226592</v>
@@ -19242,7 +19307,7 @@
         <v>137</v>
       </c>
       <c r="B506" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C506">
         <v>78528</v>
@@ -19277,7 +19342,7 @@
         <v>137</v>
       </c>
       <c r="B507" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C507">
         <v>74214</v>
@@ -19312,7 +19377,7 @@
         <v>137</v>
       </c>
       <c r="B508" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C508">
         <v>258554</v>
@@ -19347,7 +19412,7 @@
         <v>137</v>
       </c>
       <c r="B509" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C509">
         <v>230242</v>
@@ -19382,7 +19447,7 @@
         <v>138</v>
       </c>
       <c r="B510" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C510">
         <v>119332</v>
@@ -19417,7 +19482,7 @@
         <v>138</v>
       </c>
       <c r="B511" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C511">
         <v>103174</v>
@@ -19452,7 +19517,7 @@
         <v>138</v>
       </c>
       <c r="B512" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C512">
         <v>245583</v>
@@ -19487,7 +19552,7 @@
         <v>138</v>
       </c>
       <c r="B513" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C513">
         <v>209648</v>
@@ -19522,7 +19587,7 @@
         <v>139</v>
       </c>
       <c r="B514" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C514">
         <v>95181</v>
@@ -19557,7 +19622,7 @@
         <v>139</v>
       </c>
       <c r="B515" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C515">
         <v>81000</v>
@@ -19592,7 +19657,7 @@
         <v>139</v>
       </c>
       <c r="B516" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C516">
         <v>315788</v>
@@ -19627,7 +19692,7 @@
         <v>139</v>
       </c>
       <c r="B517" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C517">
         <v>67909</v>
@@ -19662,7 +19727,7 @@
         <v>140</v>
       </c>
       <c r="B518" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C518">
         <v>87412</v>
@@ -19697,7 +19762,7 @@
         <v>140</v>
       </c>
       <c r="B519" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C519">
         <v>80076</v>
@@ -19732,7 +19797,7 @@
         <v>140</v>
       </c>
       <c r="B520" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C520">
         <v>283476</v>
@@ -19767,7 +19832,7 @@
         <v>140</v>
       </c>
       <c r="B521" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C521">
         <v>210360</v>
@@ -19802,7 +19867,7 @@
         <v>141</v>
       </c>
       <c r="B522" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C522">
         <v>167809</v>
@@ -19837,7 +19902,7 @@
         <v>141</v>
       </c>
       <c r="B523" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C523">
         <v>105180</v>
@@ -19872,7 +19937,7 @@
         <v>141</v>
       </c>
       <c r="B524" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C524">
         <v>229531</v>
@@ -19907,7 +19972,7 @@
         <v>141</v>
       </c>
       <c r="B525" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C525">
         <v>220622</v>
@@ -19942,7 +20007,7 @@
         <v>142</v>
       </c>
       <c r="B526" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C526">
         <v>110874</v>
@@ -19977,7 +20042,7 @@
         <v>142</v>
       </c>
       <c r="B527" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C527">
         <v>75364</v>
@@ -20012,7 +20077,7 @@
         <v>142</v>
       </c>
       <c r="B528" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C528">
         <v>282655</v>
@@ -20047,7 +20112,7 @@
         <v>142</v>
       </c>
       <c r="B529" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C529">
         <v>268429</v>
@@ -20082,7 +20147,7 @@
         <v>143</v>
       </c>
       <c r="B530" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C530">
         <v>104958</v>
@@ -20117,7 +20182,7 @@
         <v>143</v>
       </c>
       <c r="B531" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C531">
         <v>78860</v>
@@ -20152,7 +20217,7 @@
         <v>143</v>
       </c>
       <c r="B532" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C532">
         <v>275353</v>
@@ -20187,7 +20252,7 @@
         <v>143</v>
       </c>
       <c r="B533" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C533">
         <v>120656</v>
@@ -20222,7 +20287,7 @@
         <v>144</v>
       </c>
       <c r="B534" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C534">
         <v>116449</v>
@@ -20257,7 +20322,7 @@
         <v>144</v>
       </c>
       <c r="B535" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C535">
         <v>30446</v>
@@ -20292,7 +20357,7 @@
         <v>144</v>
       </c>
       <c r="B536" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C536">
         <v>306187</v>
@@ -20327,7 +20392,7 @@
         <v>144</v>
       </c>
       <c r="B537" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C537">
         <v>188011</v>
@@ -20362,7 +20427,7 @@
         <v>145</v>
       </c>
       <c r="B538" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C538">
         <v>147346</v>
@@ -20397,7 +20462,7 @@
         <v>145</v>
       </c>
       <c r="B539" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C539">
         <v>74396</v>
@@ -20432,7 +20497,7 @@
         <v>145</v>
       </c>
       <c r="B540" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C540">
         <v>266711</v>
@@ -20467,7 +20532,7 @@
         <v>145</v>
       </c>
       <c r="B541" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C541">
         <v>249790</v>
@@ -20502,7 +20567,7 @@
         <v>146</v>
       </c>
       <c r="B542" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C542">
         <v>180024</v>
@@ -20537,7 +20602,7 @@
         <v>146</v>
       </c>
       <c r="B543" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C543">
         <v>120630</v>
@@ -20572,7 +20637,7 @@
         <v>146</v>
       </c>
       <c r="B544" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C544">
         <v>244427</v>
@@ -20607,7 +20672,7 @@
         <v>146</v>
       </c>
       <c r="B545" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C545">
         <v>187189</v>
@@ -20642,7 +20707,7 @@
         <v>147</v>
       </c>
       <c r="B546" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C546">
         <v>143153</v>
@@ -20677,7 +20742,7 @@
         <v>147</v>
       </c>
       <c r="B547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C547">
         <v>84675</v>
@@ -20712,7 +20777,7 @@
         <v>147</v>
       </c>
       <c r="B548" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C548">
         <v>273459</v>
@@ -20747,7 +20812,7 @@
         <v>147</v>
       </c>
       <c r="B549" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C549">
         <v>261202</v>
@@ -20782,7 +20847,7 @@
         <v>148</v>
       </c>
       <c r="B550" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C550">
         <v>144201</v>
@@ -20817,7 +20882,7 @@
         <v>148</v>
       </c>
       <c r="B551" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C551">
         <v>87132</v>
@@ -20852,7 +20917,7 @@
         <v>148</v>
       </c>
       <c r="B552" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C552">
         <v>273538</v>
@@ -20887,7 +20952,7 @@
         <v>148</v>
       </c>
       <c r="B553" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C553">
         <v>238027</v>
@@ -20922,7 +20987,7 @@
         <v>149</v>
       </c>
       <c r="B554" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C554">
         <v>163988</v>
@@ -20957,7 +21022,7 @@
         <v>149</v>
       </c>
       <c r="B555" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C555">
         <v>132839</v>
@@ -20992,7 +21057,7 @@
         <v>149</v>
       </c>
       <c r="B556" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C556">
         <v>259296</v>
@@ -21027,7 +21092,7 @@
         <v>149</v>
       </c>
       <c r="B557" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C557">
         <v>226032</v>
@@ -21062,7 +21127,7 @@
         <v>150</v>
       </c>
       <c r="B558" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C558">
         <v>164726</v>
@@ -21097,7 +21162,7 @@
         <v>150</v>
       </c>
       <c r="B559" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C559">
         <v>104656</v>
@@ -21132,7 +21197,7 @@
         <v>150</v>
       </c>
       <c r="B560" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C560">
         <v>258097</v>
@@ -21167,7 +21232,7 @@
         <v>150</v>
       </c>
       <c r="B561" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C561">
         <v>222224</v>
@@ -21202,7 +21267,7 @@
         <v>151</v>
       </c>
       <c r="B562" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C562">
         <v>157279</v>
@@ -21237,7 +21302,7 @@
         <v>151</v>
       </c>
       <c r="B563" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C563">
         <v>119899</v>
@@ -21272,7 +21337,7 @@
         <v>151</v>
       </c>
       <c r="B564" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C564">
         <v>266341</v>
@@ -21307,7 +21372,7 @@
         <v>151</v>
       </c>
       <c r="B565" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C565">
         <v>212245</v>
@@ -21342,7 +21407,7 @@
         <v>152</v>
       </c>
       <c r="B566" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C566">
         <v>145089</v>
@@ -21377,7 +21442,7 @@
         <v>152</v>
       </c>
       <c r="B567" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C567">
         <v>119405</v>
@@ -21412,7 +21477,7 @@
         <v>152</v>
       </c>
       <c r="B568" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C568">
         <v>254232</v>
@@ -21447,7 +21512,7 @@
         <v>152</v>
       </c>
       <c r="B569" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C569">
         <v>202364</v>
@@ -21482,7 +21547,7 @@
         <v>153</v>
       </c>
       <c r="B570" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C570">
         <v>91737</v>
@@ -21517,7 +21582,7 @@
         <v>153</v>
       </c>
       <c r="B571" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C571">
         <v>64172</v>
@@ -21552,7 +21617,7 @@
         <v>153</v>
       </c>
       <c r="B572" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C572">
         <v>265324</v>
@@ -21587,7 +21652,7 @@
         <v>153</v>
       </c>
       <c r="B573" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C573">
         <v>225833</v>
@@ -21622,7 +21687,7 @@
         <v>154</v>
       </c>
       <c r="B574" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C574">
         <v>111380</v>
@@ -21657,7 +21722,7 @@
         <v>154</v>
       </c>
       <c r="B575" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C575">
         <v>108321</v>
@@ -21692,7 +21757,7 @@
         <v>154</v>
       </c>
       <c r="B576" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C576">
         <v>253636</v>
@@ -21727,7 +21792,7 @@
         <v>154</v>
       </c>
       <c r="B577" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C577">
         <v>187203</v>
@@ -21762,7 +21827,7 @@
         <v>155</v>
       </c>
       <c r="B578" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C578">
         <v>128077</v>
@@ -21797,7 +21862,7 @@
         <v>155</v>
       </c>
       <c r="B579" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C579">
         <v>134026</v>
@@ -21832,7 +21897,7 @@
         <v>155</v>
       </c>
       <c r="B580" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C580">
         <v>272909</v>
@@ -21867,7 +21932,7 @@
         <v>155</v>
       </c>
       <c r="B581" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C581">
         <v>20564</v>
@@ -21902,7 +21967,7 @@
         <v>156</v>
       </c>
       <c r="B582" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C582">
         <v>113515</v>
@@ -21937,7 +22002,7 @@
         <v>156</v>
       </c>
       <c r="B583" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C583">
         <v>111558</v>
@@ -21972,7 +22037,7 @@
         <v>156</v>
       </c>
       <c r="B584" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C584">
         <v>247477</v>
@@ -22007,7 +22072,7 @@
         <v>156</v>
       </c>
       <c r="B585" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C585">
         <v>7614</v>
@@ -22042,7 +22107,7 @@
         <v>157</v>
       </c>
       <c r="B586" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C586">
         <v>137719</v>
@@ -22077,7 +22142,7 @@
         <v>157</v>
       </c>
       <c r="B587" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C587">
         <v>84489</v>
@@ -22112,7 +22177,7 @@
         <v>157</v>
       </c>
       <c r="B588" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C588">
         <v>237158</v>
@@ -22147,7 +22212,7 @@
         <v>157</v>
       </c>
       <c r="B589" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C589">
         <v>201759</v>
@@ -22182,7 +22247,7 @@
         <v>158</v>
       </c>
       <c r="B590" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C590">
         <v>125169</v>
@@ -22217,7 +22282,7 @@
         <v>158</v>
       </c>
       <c r="B591" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C591">
         <v>82419</v>
@@ -22252,7 +22317,7 @@
         <v>158</v>
       </c>
       <c r="B592" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C592">
         <v>256865</v>
@@ -22287,7 +22352,7 @@
         <v>158</v>
       </c>
       <c r="B593" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C593">
         <v>163866</v>
@@ -22322,7 +22387,7 @@
         <v>159</v>
       </c>
       <c r="B594" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C594">
         <v>144277</v>
@@ -22357,7 +22422,7 @@
         <v>159</v>
       </c>
       <c r="B595" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C595">
         <v>120266</v>
@@ -22392,7 +22457,7 @@
         <v>159</v>
       </c>
       <c r="B596" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C596">
         <v>242979</v>
@@ -22427,7 +22492,7 @@
         <v>159</v>
       </c>
       <c r="B597" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C597">
         <v>175554</v>
@@ -22462,7 +22527,7 @@
         <v>160</v>
       </c>
       <c r="B598" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C598">
         <v>185803</v>
@@ -22497,7 +22562,7 @@
         <v>160</v>
       </c>
       <c r="B599" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C599">
         <v>167432</v>
@@ -22532,7 +22597,7 @@
         <v>160</v>
       </c>
       <c r="B600" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C600">
         <v>236242</v>
@@ -22567,7 +22632,7 @@
         <v>160</v>
       </c>
       <c r="B601" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C601">
         <v>5814</v>
@@ -22602,7 +22667,7 @@
         <v>161</v>
       </c>
       <c r="B602" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C602">
         <v>170504</v>
@@ -22637,7 +22702,7 @@
         <v>161</v>
       </c>
       <c r="B603" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C603">
         <v>107889</v>
@@ -22672,7 +22737,7 @@
         <v>161</v>
       </c>
       <c r="B604" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C604">
         <v>246021</v>
@@ -22707,7 +22772,7 @@
         <v>161</v>
       </c>
       <c r="B605" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C605">
         <v>2170</v>
@@ -22742,7 +22807,7 @@
         <v>162</v>
       </c>
       <c r="B606" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C606">
         <v>142625</v>
@@ -22777,7 +22842,7 @@
         <v>162</v>
       </c>
       <c r="B607" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C607">
         <v>125164</v>
@@ -22812,7 +22877,7 @@
         <v>162</v>
       </c>
       <c r="B608" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C608">
         <v>260707</v>
@@ -22847,7 +22912,7 @@
         <v>162</v>
       </c>
       <c r="B609" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C609">
         <v>189392</v>
@@ -22882,7 +22947,7 @@
         <v>163</v>
       </c>
       <c r="B610" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C610">
         <v>111289</v>
@@ -22917,7 +22982,7 @@
         <v>163</v>
       </c>
       <c r="B611" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C611">
         <v>77486</v>
@@ -22952,7 +23017,7 @@
         <v>163</v>
       </c>
       <c r="B612" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C612">
         <v>232908</v>
@@ -22987,7 +23052,7 @@
         <v>163</v>
       </c>
       <c r="B613" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C613">
         <v>239187</v>
@@ -23022,7 +23087,7 @@
         <v>164</v>
       </c>
       <c r="B614" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C614">
         <v>55192</v>
@@ -23057,7 +23122,7 @@
         <v>164</v>
       </c>
       <c r="B615" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C615">
         <v>33159</v>
@@ -23092,7 +23157,7 @@
         <v>164</v>
       </c>
       <c r="B616" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C616">
         <v>285229</v>
@@ -23127,7 +23192,7 @@
         <v>164</v>
       </c>
       <c r="B617" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C617">
         <v>272474</v>
@@ -23162,7 +23227,7 @@
         <v>165</v>
       </c>
       <c r="B618" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C618">
         <v>60562</v>
@@ -23197,7 +23262,7 @@
         <v>165</v>
       </c>
       <c r="B619" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C619">
         <v>54049</v>
@@ -23232,7 +23297,7 @@
         <v>165</v>
       </c>
       <c r="B620" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C620">
         <v>258938</v>
@@ -23267,7 +23332,7 @@
         <v>165</v>
       </c>
       <c r="B621" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C621">
         <v>230669</v>
@@ -23302,7 +23367,7 @@
         <v>166</v>
       </c>
       <c r="B622" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C622">
         <v>150452</v>
@@ -23337,7 +23402,7 @@
         <v>166</v>
       </c>
       <c r="B623" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C623">
         <v>123933</v>
@@ -23372,7 +23437,7 @@
         <v>166</v>
       </c>
       <c r="B624" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C624">
         <v>227929</v>
@@ -23407,7 +23472,7 @@
         <v>166</v>
       </c>
       <c r="B625" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C625">
         <v>205190</v>
@@ -23442,7 +23507,7 @@
         <v>167</v>
       </c>
       <c r="B626" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C626">
         <v>147840</v>
@@ -23477,7 +23542,7 @@
         <v>167</v>
       </c>
       <c r="B627" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C627">
         <v>94489</v>
@@ -23512,7 +23577,7 @@
         <v>167</v>
       </c>
       <c r="B628" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C628">
         <v>242603</v>
@@ -23547,7 +23612,7 @@
         <v>167</v>
       </c>
       <c r="B629" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C629">
         <v>227885</v>
@@ -23582,7 +23647,7 @@
         <v>168</v>
       </c>
       <c r="B630" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C630">
         <v>106476</v>
@@ -23617,7 +23682,7 @@
         <v>168</v>
       </c>
       <c r="B631" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C631">
         <v>76634</v>
@@ -23652,7 +23717,7 @@
         <v>168</v>
       </c>
       <c r="B632" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C632">
         <v>256824</v>
@@ -23687,7 +23752,7 @@
         <v>168</v>
       </c>
       <c r="B633" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C633">
         <v>264247</v>
@@ -23722,7 +23787,7 @@
         <v>169</v>
       </c>
       <c r="B634" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C634">
         <v>106371</v>
@@ -23757,7 +23822,7 @@
         <v>169</v>
       </c>
       <c r="B635" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C635">
         <v>100242</v>
@@ -23792,7 +23857,7 @@
         <v>169</v>
       </c>
       <c r="B636" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C636">
         <v>255580</v>
@@ -23827,7 +23892,7 @@
         <v>169</v>
       </c>
       <c r="B637" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C637">
         <v>214115</v>
@@ -23862,7 +23927,7 @@
         <v>170</v>
       </c>
       <c r="B638" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C638">
         <v>102853</v>
@@ -23897,7 +23962,7 @@
         <v>170</v>
       </c>
       <c r="B639" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C639">
         <v>86722</v>
@@ -23932,7 +23997,7 @@
         <v>170</v>
       </c>
       <c r="B640" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C640">
         <v>246438</v>
@@ -23967,7 +24032,7 @@
         <v>170</v>
       </c>
       <c r="B641" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C641">
         <v>210901</v>
@@ -24002,7 +24067,7 @@
         <v>171</v>
       </c>
       <c r="B642" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C642">
         <v>96321</v>
@@ -24037,7 +24102,7 @@
         <v>171</v>
       </c>
       <c r="B643" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C643">
         <v>86185</v>
@@ -24072,7 +24137,7 @@
         <v>171</v>
       </c>
       <c r="B644" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C644">
         <v>273406</v>
@@ -24107,7 +24172,7 @@
         <v>171</v>
       </c>
       <c r="B645" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C645">
         <v>193450</v>
@@ -24142,7 +24207,7 @@
         <v>172</v>
       </c>
       <c r="B646" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C646">
         <v>60731</v>
@@ -24177,7 +24242,7 @@
         <v>172</v>
       </c>
       <c r="B647" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C647">
         <v>51456</v>
@@ -24212,7 +24277,7 @@
         <v>172</v>
       </c>
       <c r="B648" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C648">
         <v>287264</v>
@@ -24247,7 +24312,7 @@
         <v>172</v>
       </c>
       <c r="B649" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C649">
         <v>241086</v>
@@ -24282,7 +24347,7 @@
         <v>173</v>
       </c>
       <c r="B650" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C650">
         <v>93210</v>
@@ -24317,7 +24382,7 @@
         <v>173</v>
       </c>
       <c r="B651" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C651">
         <v>75390</v>
@@ -24352,7 +24417,7 @@
         <v>173</v>
       </c>
       <c r="B652" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C652">
         <v>257363</v>
@@ -24387,7 +24452,7 @@
         <v>173</v>
       </c>
       <c r="B653" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C653">
         <v>243971</v>
@@ -24422,7 +24487,7 @@
         <v>174</v>
       </c>
       <c r="B654" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C654">
         <v>77465</v>
@@ -24457,7 +24522,7 @@
         <v>174</v>
       </c>
       <c r="B655" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C655">
         <v>52419</v>
@@ -24492,7 +24557,7 @@
         <v>174</v>
       </c>
       <c r="B656" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C656">
         <v>273810</v>
@@ -24527,7 +24592,7 @@
         <v>174</v>
       </c>
       <c r="B657" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C657">
         <v>301277</v>
@@ -24562,7 +24627,7 @@
         <v>175</v>
       </c>
       <c r="B658" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C658">
         <v>75693</v>
@@ -24597,7 +24662,7 @@
         <v>175</v>
       </c>
       <c r="B659" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C659">
         <v>39760</v>
@@ -24632,7 +24697,7 @@
         <v>175</v>
       </c>
       <c r="B660" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C660">
         <v>263661</v>
@@ -24667,7 +24732,7 @@
         <v>175</v>
       </c>
       <c r="B661" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C661">
         <v>211057</v>
@@ -24702,7 +24767,7 @@
         <v>176</v>
       </c>
       <c r="B662" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C662">
         <v>51655</v>
@@ -24737,7 +24802,7 @@
         <v>176</v>
       </c>
       <c r="B663" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C663">
         <v>51876</v>
@@ -24772,7 +24837,7 @@
         <v>176</v>
       </c>
       <c r="B664" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C664">
         <v>304417</v>
@@ -24807,7 +24872,7 @@
         <v>176</v>
       </c>
       <c r="B665" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C665">
         <v>259037</v>
@@ -24842,7 +24907,7 @@
         <v>177</v>
       </c>
       <c r="B666" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C666">
         <v>119820</v>
@@ -24877,7 +24942,7 @@
         <v>177</v>
       </c>
       <c r="B667" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C667">
         <v>94899</v>
@@ -24912,7 +24977,7 @@
         <v>177</v>
       </c>
       <c r="B668" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C668">
         <v>296246</v>
@@ -24947,7 +25012,7 @@
         <v>177</v>
       </c>
       <c r="B669" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C669">
         <v>115661</v>
@@ -24982,7 +25047,7 @@
         <v>178</v>
       </c>
       <c r="B670" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C670">
         <v>130245</v>
@@ -25017,7 +25082,7 @@
         <v>178</v>
       </c>
       <c r="B671" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C671">
         <v>43191</v>
@@ -25052,7 +25117,7 @@
         <v>178</v>
       </c>
       <c r="B672" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C672">
         <v>268149</v>
@@ -25087,7 +25152,7 @@
         <v>178</v>
       </c>
       <c r="B673" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C673">
         <v>155149</v>
@@ -25122,7 +25187,7 @@
         <v>179</v>
       </c>
       <c r="B674" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C674">
         <v>99687</v>
@@ -25157,7 +25222,7 @@
         <v>179</v>
       </c>
       <c r="B675" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C675">
         <v>45579</v>
@@ -25192,7 +25257,7 @@
         <v>179</v>
       </c>
       <c r="B676" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C676">
         <v>276904</v>
@@ -25227,7 +25292,7 @@
         <v>179</v>
       </c>
       <c r="B677" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C677">
         <v>240076</v>
@@ -25262,7 +25327,7 @@
         <v>180</v>
       </c>
       <c r="B678" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C678">
         <v>113652</v>
@@ -25297,7 +25362,7 @@
         <v>180</v>
       </c>
       <c r="B679" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C679">
         <v>60697</v>
@@ -25332,7 +25397,7 @@
         <v>180</v>
       </c>
       <c r="B680" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C680">
         <v>162026</v>
@@ -25367,7 +25432,7 @@
         <v>180</v>
       </c>
       <c r="B681" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C681">
         <v>264320</v>
@@ -25402,7 +25467,7 @@
         <v>181</v>
       </c>
       <c r="B682" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C682">
         <v>159278</v>
@@ -25437,7 +25502,7 @@
         <v>181</v>
       </c>
       <c r="B683" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C683">
         <v>102704</v>
@@ -25472,7 +25537,7 @@
         <v>181</v>
       </c>
       <c r="B684" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C684">
         <v>262350</v>
@@ -25507,7 +25572,7 @@
         <v>181</v>
       </c>
       <c r="B685" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C685">
         <v>252309</v>
@@ -25542,7 +25607,7 @@
         <v>182</v>
       </c>
       <c r="B686" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C686">
         <v>176526</v>
@@ -25577,7 +25642,7 @@
         <v>182</v>
       </c>
       <c r="B687" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C687">
         <v>141152</v>
@@ -25612,7 +25677,7 @@
         <v>182</v>
       </c>
       <c r="B688" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C688">
         <v>244706</v>
@@ -25647,7 +25712,7 @@
         <v>182</v>
       </c>
       <c r="B689" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C689">
         <v>206497</v>
@@ -25682,7 +25747,7 @@
         <v>183</v>
       </c>
       <c r="B690" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C690">
         <v>137089</v>
@@ -25717,7 +25782,7 @@
         <v>183</v>
       </c>
       <c r="B691" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C691">
         <v>78430</v>
@@ -25752,7 +25817,7 @@
         <v>183</v>
       </c>
       <c r="B692" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C692">
         <v>277507</v>
@@ -25787,7 +25852,7 @@
         <v>183</v>
       </c>
       <c r="B693" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C693">
         <v>243186</v>
@@ -25822,7 +25887,7 @@
         <v>184</v>
       </c>
       <c r="B694" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C694">
         <v>126646</v>
@@ -25857,7 +25922,7 @@
         <v>184</v>
       </c>
       <c r="B695" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C695">
         <v>96505</v>
@@ -25892,7 +25957,7 @@
         <v>184</v>
       </c>
       <c r="B696" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C696">
         <v>267674</v>
@@ -25927,7 +25992,7 @@
         <v>184</v>
       </c>
       <c r="B697" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C697">
         <v>222618</v>
@@ -25962,7 +26027,7 @@
         <v>185</v>
       </c>
       <c r="B698" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C698">
         <v>95850</v>
@@ -25997,7 +26062,7 @@
         <v>185</v>
       </c>
       <c r="B699" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C699">
         <v>94691</v>
@@ -26032,7 +26097,7 @@
         <v>185</v>
       </c>
       <c r="B700" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C700">
         <v>288354</v>
@@ -26067,7 +26132,7 @@
         <v>185</v>
       </c>
       <c r="B701" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C701">
         <v>210216</v>
@@ -26102,7 +26167,7 @@
         <v>186</v>
       </c>
       <c r="B702" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C702">
         <v>90355</v>
@@ -26137,7 +26202,7 @@
         <v>186</v>
       </c>
       <c r="B703" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C703">
         <v>71890</v>
@@ -26172,7 +26237,7 @@
         <v>186</v>
       </c>
       <c r="B704" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C704">
         <v>296685</v>
@@ -26207,7 +26272,7 @@
         <v>186</v>
       </c>
       <c r="B705" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C705">
         <v>240499</v>
@@ -26242,7 +26307,7 @@
         <v>187</v>
       </c>
       <c r="B706" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C706">
         <v>91559</v>
@@ -26277,7 +26342,7 @@
         <v>187</v>
       </c>
       <c r="B707" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C707">
         <v>71996</v>
@@ -26312,7 +26377,7 @@
         <v>187</v>
       </c>
       <c r="B708" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C708">
         <v>268561</v>
@@ -26347,7 +26412,7 @@
         <v>187</v>
       </c>
       <c r="B709" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C709">
         <v>232525</v>
@@ -26382,7 +26447,7 @@
         <v>188</v>
       </c>
       <c r="B710" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C710">
         <v>101958</v>
@@ -26417,7 +26482,7 @@
         <v>188</v>
       </c>
       <c r="B711" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C711">
         <v>66825</v>
@@ -26452,7 +26517,7 @@
         <v>188</v>
       </c>
       <c r="B712" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C712">
         <v>296153</v>
@@ -26487,7 +26552,7 @@
         <v>188</v>
       </c>
       <c r="B713" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C713">
         <v>226782</v>
@@ -26522,7 +26587,7 @@
         <v>189</v>
       </c>
       <c r="B714" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C714">
         <v>93076</v>
@@ -26557,7 +26622,7 @@
         <v>189</v>
       </c>
       <c r="B715" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C715">
         <v>54041</v>
@@ -26592,7 +26657,7 @@
         <v>189</v>
       </c>
       <c r="B716" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C716">
         <v>296841</v>
@@ -26627,7 +26692,7 @@
         <v>189</v>
       </c>
       <c r="B717" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C717">
         <v>237529</v>
@@ -26662,7 +26727,7 @@
         <v>190</v>
       </c>
       <c r="B718" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C718">
         <v>94961</v>
@@ -26697,7 +26762,7 @@
         <v>190</v>
       </c>
       <c r="B719" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C719">
         <v>79114</v>
@@ -26732,7 +26797,7 @@
         <v>190</v>
       </c>
       <c r="B720" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C720">
         <v>287262</v>
@@ -26767,7 +26832,7 @@
         <v>190</v>
       </c>
       <c r="B721" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C721">
         <v>243471</v>
@@ -26802,7 +26867,7 @@
         <v>191</v>
       </c>
       <c r="B722" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C722">
         <v>89252</v>
@@ -26837,7 +26902,7 @@
         <v>191</v>
       </c>
       <c r="B723" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C723">
         <v>73317</v>
@@ -26872,7 +26937,7 @@
         <v>191</v>
       </c>
       <c r="B724" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C724">
         <v>257708</v>
@@ -26907,7 +26972,7 @@
         <v>191</v>
       </c>
       <c r="B725" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C725">
         <v>204878</v>
@@ -26942,7 +27007,7 @@
         <v>192</v>
       </c>
       <c r="B726" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C726">
         <v>85608</v>
@@ -26977,7 +27042,7 @@
         <v>192</v>
       </c>
       <c r="B727" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C727">
         <v>67662</v>
@@ -27012,7 +27077,7 @@
         <v>192</v>
       </c>
       <c r="B728" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C728">
         <v>254637</v>
@@ -27047,7 +27112,7 @@
         <v>192</v>
       </c>
       <c r="B729" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C729">
         <v>186651</v>
@@ -27082,7 +27147,7 @@
         <v>193</v>
       </c>
       <c r="B730" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C730">
         <v>81649</v>
@@ -27117,7 +27182,7 @@
         <v>193</v>
       </c>
       <c r="B731" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C731">
         <v>62454</v>
@@ -27152,7 +27217,7 @@
         <v>193</v>
       </c>
       <c r="B732" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C732">
         <v>261308</v>
@@ -27187,7 +27252,7 @@
         <v>193</v>
       </c>
       <c r="B733" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C733">
         <v>188400</v>
@@ -27222,7 +27287,7 @@
         <v>194</v>
       </c>
       <c r="B734" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C734">
         <v>69743</v>
@@ -27257,7 +27322,7 @@
         <v>194</v>
       </c>
       <c r="B735" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C735">
         <v>55804</v>
@@ -27292,7 +27357,7 @@
         <v>194</v>
       </c>
       <c r="B736" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C736">
         <v>276295</v>
@@ -27327,7 +27392,7 @@
         <v>194</v>
       </c>
       <c r="B737" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C737">
         <v>214788</v>
@@ -27362,7 +27427,7 @@
         <v>195</v>
       </c>
       <c r="B738" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C738">
         <v>86464</v>
@@ -27397,7 +27462,7 @@
         <v>195</v>
       </c>
       <c r="B739" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C739">
         <v>31127</v>
@@ -27432,7 +27497,7 @@
         <v>195</v>
       </c>
       <c r="B740" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C740">
         <v>256623</v>
@@ -27467,7 +27532,7 @@
         <v>195</v>
       </c>
       <c r="B741" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C741">
         <v>67894</v>
@@ -27502,7 +27567,7 @@
         <v>196</v>
       </c>
       <c r="B742" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C742">
         <v>102592</v>
@@ -27537,7 +27602,7 @@
         <v>196</v>
       </c>
       <c r="B743" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C743">
         <v>65985</v>
@@ -27572,7 +27637,7 @@
         <v>196</v>
       </c>
       <c r="B744" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C744">
         <v>238719</v>
@@ -27607,7 +27672,7 @@
         <v>196</v>
       </c>
       <c r="B745" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C745">
         <v>158541</v>
@@ -27642,7 +27707,7 @@
         <v>197</v>
       </c>
       <c r="B746" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C746">
         <v>152139</v>
@@ -27677,7 +27742,7 @@
         <v>197</v>
       </c>
       <c r="B747" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C747">
         <v>104292</v>
@@ -27712,7 +27777,7 @@
         <v>197</v>
       </c>
       <c r="B748" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C748">
         <v>264333</v>
@@ -27747,7 +27812,7 @@
         <v>197</v>
       </c>
       <c r="B749" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C749">
         <v>227130</v>
@@ -27782,7 +27847,7 @@
         <v>198</v>
       </c>
       <c r="B750" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C750">
         <v>108988</v>
@@ -27817,7 +27882,7 @@
         <v>198</v>
       </c>
       <c r="B751" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C751">
         <v>95576</v>
@@ -27852,7 +27917,7 @@
         <v>198</v>
       </c>
       <c r="B752" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C752">
         <v>267299</v>
@@ -27887,7 +27952,7 @@
         <v>198</v>
       </c>
       <c r="B753" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C753">
         <v>270422</v>
@@ -27922,7 +27987,7 @@
         <v>199</v>
       </c>
       <c r="B754" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C754">
         <v>141955</v>
@@ -27957,7 +28022,7 @@
         <v>199</v>
       </c>
       <c r="B755" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C755">
         <v>103225</v>
@@ -27992,7 +28057,7 @@
         <v>199</v>
       </c>
       <c r="B756" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C756">
         <v>281900</v>
@@ -28027,7 +28092,7 @@
         <v>199</v>
       </c>
       <c r="B757" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C757">
         <v>249374</v>
@@ -28062,7 +28127,7 @@
         <v>200</v>
       </c>
       <c r="B758" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C758">
         <v>127662</v>
@@ -28097,7 +28162,7 @@
         <v>200</v>
       </c>
       <c r="B759" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C759">
         <v>111642</v>
@@ -28132,7 +28197,7 @@
         <v>200</v>
       </c>
       <c r="B760" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C760">
         <v>293206</v>
@@ -28167,7 +28232,7 @@
         <v>200</v>
       </c>
       <c r="B761" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C761">
         <v>218271</v>
@@ -28202,7 +28267,7 @@
         <v>201</v>
       </c>
       <c r="B762" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C762">
         <v>141950</v>
@@ -28237,7 +28302,7 @@
         <v>201</v>
       </c>
       <c r="B763" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C763">
         <v>104541</v>
@@ -28272,7 +28337,7 @@
         <v>201</v>
       </c>
       <c r="B764" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C764">
         <v>279928</v>
@@ -28307,7 +28372,7 @@
         <v>201</v>
       </c>
       <c r="B765" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C765">
         <v>231430</v>
@@ -28342,7 +28407,7 @@
         <v>202</v>
       </c>
       <c r="B766" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C766">
         <v>141275</v>
@@ -28377,7 +28442,7 @@
         <v>202</v>
       </c>
       <c r="B767" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C767">
         <v>142072</v>
@@ -28412,7 +28477,7 @@
         <v>202</v>
       </c>
       <c r="B768" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C768">
         <v>277438</v>
@@ -28447,7 +28512,7 @@
         <v>202</v>
       </c>
       <c r="B769" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C769">
         <v>161255</v>
@@ -28482,7 +28547,7 @@
         <v>203</v>
       </c>
       <c r="B770" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C770">
         <v>132387</v>
@@ -28517,7 +28582,7 @@
         <v>203</v>
       </c>
       <c r="B771" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C771">
         <v>129161</v>
@@ -28552,7 +28617,7 @@
         <v>203</v>
       </c>
       <c r="B772" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C772">
         <v>283513</v>
@@ -28587,7 +28652,7 @@
         <v>203</v>
       </c>
       <c r="B773" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C773">
         <v>206860</v>
@@ -28622,7 +28687,7 @@
         <v>204</v>
       </c>
       <c r="B774" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C774">
         <v>101702</v>
@@ -28657,7 +28722,7 @@
         <v>204</v>
       </c>
       <c r="B775" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C775">
         <v>75103</v>
@@ -28692,7 +28757,7 @@
         <v>204</v>
       </c>
       <c r="B776" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C776">
         <v>297708</v>
@@ -28727,7 +28792,7 @@
         <v>204</v>
       </c>
       <c r="B777" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C777">
         <v>252084</v>
@@ -28762,7 +28827,7 @@
         <v>205</v>
       </c>
       <c r="B778" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C778">
         <v>120028</v>
@@ -28797,7 +28862,7 @@
         <v>205</v>
       </c>
       <c r="B779" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C779">
         <v>72516</v>
@@ -28832,7 +28897,7 @@
         <v>205</v>
       </c>
       <c r="B780" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C780">
         <v>292468</v>
@@ -28867,7 +28932,7 @@
         <v>205</v>
       </c>
       <c r="B781" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C781">
         <v>229714</v>
@@ -28902,7 +28967,7 @@
         <v>206</v>
       </c>
       <c r="B782" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C782">
         <v>129006</v>
@@ -28937,7 +29002,7 @@
         <v>206</v>
       </c>
       <c r="B783" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C783">
         <v>70744</v>
@@ -28972,7 +29037,7 @@
         <v>206</v>
       </c>
       <c r="B784" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C784">
         <v>285205</v>
@@ -29007,7 +29072,7 @@
         <v>206</v>
       </c>
       <c r="B785" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C785">
         <v>222470</v>
@@ -29042,7 +29107,7 @@
         <v>207</v>
       </c>
       <c r="B786" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C786">
         <v>123491</v>
@@ -29077,7 +29142,7 @@
         <v>207</v>
       </c>
       <c r="B787" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C787">
         <v>112130</v>
@@ -29112,7 +29177,7 @@
         <v>207</v>
       </c>
       <c r="B788" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C788">
         <v>294952</v>
@@ -29147,7 +29212,7 @@
         <v>207</v>
       </c>
       <c r="B789" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C789">
         <v>150232</v>
@@ -29182,7 +29247,7 @@
         <v>208</v>
       </c>
       <c r="B790" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C790">
         <v>115482</v>
@@ -29217,7 +29282,7 @@
         <v>208</v>
       </c>
       <c r="B791" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C791">
         <v>72111</v>
@@ -29252,7 +29317,7 @@
         <v>208</v>
       </c>
       <c r="B792" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C792">
         <v>296084</v>
@@ -29287,7 +29352,7 @@
         <v>208</v>
       </c>
       <c r="B793" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C793">
         <v>254103</v>
@@ -29322,7 +29387,7 @@
         <v>209</v>
       </c>
       <c r="B794" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C794">
         <v>130537</v>
@@ -29357,7 +29422,7 @@
         <v>209</v>
       </c>
       <c r="B795" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C795">
         <v>78348</v>
@@ -29392,7 +29457,7 @@
         <v>209</v>
       </c>
       <c r="B796" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C796">
         <v>266628</v>
@@ -29427,7 +29492,7 @@
         <v>209</v>
       </c>
       <c r="B797" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C797">
         <v>236824</v>
@@ -29462,7 +29527,7 @@
         <v>210</v>
       </c>
       <c r="B798" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C798">
         <v>90504</v>
@@ -29497,7 +29562,7 @@
         <v>210</v>
       </c>
       <c r="B799" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C799">
         <v>91186</v>
@@ -29527,12 +29592,12 @@
         <v>0.375112098399769</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>210</v>
       </c>
       <c r="B800" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C800">
         <v>288142</v>
@@ -29567,7 +29632,7 @@
         <v>210</v>
       </c>
       <c r="B801" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C801">
         <v>199462</v>
@@ -29599,7 +29664,7 @@
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -29645,67 +29710,147 @@
         <v>10</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B804" t="s">
-        <v>214</v>
+      <c r="B804" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H804" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I804" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J804" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K804" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L804" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A805" t="s">
-        <v>219</v>
+      <c r="B805" t="s">
+        <v>216</v>
+      </c>
+      <c r="C805" s="4">
+        <v>82009935</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F805" s="4">
+        <v>38608345</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H805" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I805" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J805" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K805" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L805" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A806" t="s">
-        <v>212</v>
+      <c r="B806" t="s">
+        <v>243</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H806" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I806" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J806" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K806" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L806" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B807" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A808" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A809" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B810" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A811" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A812" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B813" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A814" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A815" t="s">
-        <v>225</v>
+        <v>244</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D807" s="4">
+        <v>82009935</v>
+      </c>
+      <c r="E807" s="4">
+        <v>36608345</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H807" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I807" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J807" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K807" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L807" s="3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -29713,5 +29858,6 @@
     <mergeCell ref="A802:K802"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>